--- a/legislator/property/output/normal/李俊俋_2013-12-02_財產申報表_tmp52b51.xlsx
+++ b/legislator/property/output/normal/李俊俋_2013-12-02_財產申報表_tmp52b51.xlsx
@@ -19,9 +19,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="62">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="79">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>嘉義市嘉義市長竹段00060002地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>李俊俋</t>
+  </si>
+  <si>
+    <t>96年02月09日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-02</t>
+  </si>
+  <si>
+    <t>tmp52b51</t>
+  </si>
+  <si>
+    <t>建物標不</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -42,25 +111,7 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>嘉義市嘉義市長竹段0006-0002 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>李俊俋</t>
-  </si>
-  <si>
-    <t>96年02月 09日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>建物標不</t>
-  </si>
-  <si>
-    <t>嘉義市嘉義市長竹段01946-000 建號</t>
+    <t>嘉義市嘉義市長竹段01946000建號</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -72,31 +123,31 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>MAZDA 3</t>
-  </si>
-  <si>
-    <t>MAZDA MPV</t>
+    <t>MAZDA3</t>
+  </si>
+  <si>
+    <t>MAZDAMPV</t>
   </si>
   <si>
     <t>三菱DELICA</t>
   </si>
   <si>
-    <t>3，000</t>
+    <t>3000</t>
   </si>
   <si>
     <t>陳佳慧</t>
   </si>
   <si>
-    <t>98年09月 16日</t>
-  </si>
-  <si>
-    <t>94年08月 01日</t>
-  </si>
-  <si>
-    <t>100 年 09 月07日</t>
-  </si>
-  <si>
-    <t>存放_機構(應敘明分支機構）</t>
+    <t>98年09月16日</t>
+  </si>
+  <si>
+    <t>94年08月01日</t>
+  </si>
+  <si>
+    <t>100年09月07日</t>
+  </si>
+  <si>
+    <t>存放機構(應敘明分支機構）</t>
   </si>
   <si>
     <t>種類</t>
@@ -108,7 +159,7 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司台 大郵局</t>
+    <t>中華郵政股份有限公司台大郵局</t>
   </si>
   <si>
     <t>第一商業銀行新西分行</t>
@@ -117,7 +168,7 @@
     <t>臺灣銀行寶慶</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司嘉 義中山路郵局</t>
+    <t>中華郵政股份有限公司嘉義中山路郵局</t>
   </si>
   <si>
     <t>玉山商業銀行</t>
@@ -165,10 +216,10 @@
     <t>南山人壽</t>
   </si>
   <si>
-    <t>富邦人壽心得意利率變動型 年金保險</t>
-  </si>
-  <si>
-    <t>月月金喜利率變動型養老保 險</t>
+    <t>富邦人壽心得意利率變動型年金保險</t>
+  </si>
+  <si>
+    <t>月月金喜利率變動型養老保險</t>
   </si>
   <si>
     <t>債務人</t>
@@ -192,16 +243,16 @@
     <t>李俊倍</t>
   </si>
   <si>
-    <t>第一商業銀行 嘉義市嘉義市東區文心街 101巷8號</t>
-  </si>
-  <si>
-    <t>玉山商業銀行 嘉義市嘉義市東區文心街 101巷8號</t>
-  </si>
-  <si>
-    <t>3，893，589</t>
-  </si>
-  <si>
-    <t>96年02月 12日</t>
+    <t>第一商業銀行嘉義市嘉義市東區文心街101巷8號</t>
+  </si>
+  <si>
+    <t>玉山商業銀行嘉義市嘉義市東區文心街101巷8號</t>
+  </si>
+  <si>
+    <t>3893589</t>
+  </si>
+  <si>
+    <t>96年02月12日</t>
   </si>
   <si>
     <t>房貸</t>
@@ -563,13 +614,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,31 +642,73 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2">
         <v>8000000</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1738</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -633,25 +726,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -659,22 +752,22 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2">
         <v>208.81</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2">
         <v>3000000</v>
@@ -695,22 +788,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -718,19 +811,19 @@
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2">
         <v>2000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2">
         <v>600000</v>
@@ -741,19 +834,19 @@
         <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="G3" s="2">
         <v>1300000</v>
@@ -764,19 +857,19 @@
         <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2">
         <v>2350</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2">
         <v>150000</v>
@@ -797,19 +890,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -817,16 +910,16 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2">
         <v>174370</v>
@@ -837,16 +930,16 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2">
         <v>105003</v>
@@ -857,16 +950,16 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2">
         <v>2115</v>
@@ -877,16 +970,16 @@
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="F5" s="2">
         <v>127848</v>
@@ -897,16 +990,16 @@
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F6" s="2">
         <v>261223</v>
@@ -917,16 +1010,16 @@
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="F7" s="2">
         <v>5254</v>
@@ -937,16 +1030,16 @@
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="F8" s="2">
         <v>94</v>
@@ -957,16 +1050,16 @@
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="F9" s="2">
         <v>96</v>
@@ -977,16 +1070,16 @@
         <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F10" s="2">
         <v>444825</v>
@@ -997,16 +1090,16 @@
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F11" s="2">
         <v>109112</v>
@@ -1017,16 +1110,16 @@
         <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F12" s="2">
         <v>159443</v>
@@ -1047,13 +1140,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1061,13 +1154,13 @@
         <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1075,13 +1168,13 @@
         <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1099,22 +1192,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1122,22 +1215,22 @@
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2">
         <v>6801402</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1145,22 +1238,22 @@
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李俊俋_2013-12-02_財產申報表_tmp52b51.xlsx
+++ b/legislator/property/output/normal/李俊俋_2013-12-02_財產申報表_tmp52b51.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="59">
   <si>
     <t>name</t>
   </si>
@@ -69,19 +69,34 @@
     <t>total</t>
   </si>
   <si>
+    <t>嘉義市嘉義市長竹段00060002地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>李俊俋</t>
+  </si>
+  <si>
+    <t>96年02月09日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-02</t>
+  </si>
+  <si>
+    <t>tmp52b51</t>
+  </si>
+  <si>
     <t>嘉義市嘉義市長竹段01946000建號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>李俊俋</t>
-  </si>
-  <si>
-    <t>96年02月09日</t>
-  </si>
-  <si>
-    <t>買賣</t>
   </si>
   <si>
     <t>MAZDA3</t>
@@ -539,13 +554,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,6 +608,59 @@
       </c>
       <c r="Q1" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>123</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2">
+        <v>8000000</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1738</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -602,33 +670,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2">
         <v>208.81</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H2" s="2">
         <v>3000000</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1738</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="2">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>208.81</v>
       </c>
     </row>
   </sheetData>
@@ -637,6 +785,410 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1300000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2350</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2">
+        <v>150000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1">
+        <v>174370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2">
+        <v>174370</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2">
+        <v>105003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>50</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2">
+        <v>127848</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>51</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2">
+        <v>261223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>53</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>54</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>55</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="2">
+        <v>444825</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>56</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="2">
+        <v>109112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>57</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="2">
+        <v>159443</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>89</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>90</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -646,392 +1198,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2000</v>
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>54</v>
+      </c>
+      <c r="E1" s="1">
+        <v>6801402</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1">
-        <v>600000</v>
+        <v>55</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>54</v>
+      </c>
+      <c r="E2" s="2">
+        <v>6801402</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1300000</v>
+        <v>55</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2350</v>
+        <v>52</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2">
-        <v>150000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1">
-        <v>174370</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>48</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2">
-        <v>105003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>49</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>50</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2">
-        <v>127848</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>51</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2">
-        <v>261223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>52</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2">
-        <v>5254</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>53</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>54</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
         <v>55</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="2">
-        <v>444825</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
+      <c r="G3" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="2">
-        <v>109112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>57</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="2">
-        <v>159443</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>90</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="1">
-        <v>6801402</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>101</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李俊俋_2013-12-02_財產申報表_tmp52b51.xlsx
+++ b/legislator/property/output/normal/李俊俋_2013-12-02_財產申報表_tmp52b51.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="59">
   <si>
     <t>name</t>
   </si>
@@ -99,22 +99,22 @@
     <t>嘉義市嘉義市長竹段01946000建號</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>MAZDA3</t>
   </si>
   <si>
+    <t>MAZDAMPV</t>
+  </si>
+  <si>
+    <t>三菱DELICA</t>
+  </si>
+  <si>
     <t>陳佳慧</t>
   </si>
   <si>
     <t>98年09月16日</t>
-  </si>
-  <si>
-    <t>MAZDAMPV</t>
-  </si>
-  <si>
-    <t>三菱DELICA</t>
-  </si>
-  <si>
-    <t>3000</t>
   </si>
   <si>
     <t>94年08月01日</t>
@@ -786,47 +786,68 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1">
-        <v>2000</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2">
         <v>2000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
@@ -834,19 +855,40 @@
       <c r="G2" s="2">
         <v>600000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1738</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -857,13 +899,34 @@
       <c r="G3" s="2">
         <v>1300000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1738</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2">
         <v>2350</v>
@@ -879,6 +942,27 @@
       </c>
       <c r="G4" s="2">
         <v>150000</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1738</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="2">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +1069,7 @@
         <v>36</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2">
         <v>127848</v>
@@ -1005,7 +1089,7 @@
         <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2">
         <v>261223</v>
@@ -1025,7 +1109,7 @@
         <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2">
         <v>5254</v>
@@ -1045,7 +1129,7 @@
         <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2">
         <v>94</v>
@@ -1065,7 +1149,7 @@
         <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2">
         <v>96</v>
@@ -1247,7 +1331,7 @@
         <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>57</v>

--- a/legislator/property/output/normal/李俊俋_2013-12-02_財產申報表_tmp52b51.xlsx
+++ b/legislator/property/output/normal/李俊俋_2013-12-02_財產申報表_tmp52b51.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="61">
   <si>
     <t>name</t>
   </si>
@@ -99,6 +99,9 @@
     <t>嘉義市嘉義市長竹段01946000建號</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -121,6 +124,9 @@
   </si>
   <si>
     <t>100年09月07日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>中華郵政股份有限公司台大郵局</t>
@@ -752,7 +758,7 @@
         <v>3000000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>22</v>
@@ -797,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -838,16 +844,16 @@
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2">
         <v>2000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
@@ -856,7 +862,7 @@
         <v>600000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>22</v>
@@ -882,16 +888,16 @@
         <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2">
         <v>3000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>20</v>
@@ -900,7 +906,7 @@
         <v>1300000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>22</v>
@@ -926,7 +932,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2">
         <v>2350</v>
@@ -935,7 +941,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>20</v>
@@ -944,7 +950,7 @@
         <v>150000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>22</v>
@@ -980,13 +986,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -1000,13 +1006,13 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -1020,13 +1026,13 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -1040,13 +1046,13 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
@@ -1060,16 +1066,16 @@
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2">
         <v>127848</v>
@@ -1080,16 +1086,16 @@
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2">
         <v>261223</v>
@@ -1100,16 +1106,16 @@
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2">
         <v>5254</v>
@@ -1120,16 +1126,16 @@
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2">
         <v>94</v>
@@ -1140,16 +1146,16 @@
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2">
         <v>96</v>
@@ -1160,16 +1166,16 @@
         <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F10" s="2">
         <v>444825</v>
@@ -1180,16 +1186,16 @@
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F11" s="2">
         <v>109112</v>
@@ -1200,13 +1206,13 @@
         <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
@@ -1230,10 +1236,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
@@ -1244,10 +1250,10 @@
         <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -1258,10 +1264,10 @@
         <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -1282,22 +1288,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1">
         <v>6801402</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1305,22 +1311,22 @@
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2">
         <v>6801402</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1328,22 +1334,22 @@
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李俊俋_2013-12-02_財產申報表_tmp52b51.xlsx
+++ b/legislator/property/output/normal/李俊俋_2013-12-02_財產申報表_tmp52b51.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="65">
   <si>
     <t>name</t>
   </si>
@@ -129,46 +129,58 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>中華郵政股份有限公司台大郵局</t>
   </si>
   <si>
+    <t>第一商業銀行新西分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行寶慶</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司嘉義中山路郵局</t>
+  </si>
+  <si>
+    <t>玉山商業銀行</t>
+  </si>
+  <si>
+    <t>第一商業銀行嘉義分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行信義分行</t>
+  </si>
+  <si>
+    <t>華南商業銀行嘉南分行</t>
+  </si>
+  <si>
+    <t>華南商業銀行台大辦事處</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>活期存政</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>第一商業銀行新西分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行寶慶</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司嘉義中山路郵局</t>
-  </si>
-  <si>
-    <t>玉山商業銀行</t>
-  </si>
-  <si>
-    <t>第一商業銀行嘉義分行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行信義分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行嘉南分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行台大辦事處</t>
-  </si>
-  <si>
-    <t>活期存政</t>
-  </si>
-  <si>
     <t>李〇平</t>
   </si>
   <si>
     <t>李〇立</t>
+  </si>
+  <si>
+    <t>deposit</t>
   </si>
   <si>
     <t>富邦人壽</t>
@@ -978,13 +990,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
@@ -995,24 +1007,45 @@
         <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1">
-        <v>174370</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -1020,19 +1053,40 @@
       <c r="F2" s="2">
         <v>174370</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1738</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -1040,19 +1094,40 @@
       <c r="F3" s="2">
         <v>105003</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1738</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
@@ -1060,19 +1135,40 @@
       <c r="F4" s="2">
         <v>2115</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1738</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>31</v>
@@ -1080,19 +1176,40 @@
       <c r="F5" s="2">
         <v>127848</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1738</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>31</v>
@@ -1100,19 +1217,40 @@
       <c r="F6" s="2">
         <v>261223</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1738</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>31</v>
@@ -1120,19 +1258,40 @@
       <c r="F7" s="2">
         <v>5254</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1738</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>31</v>
@@ -1140,19 +1299,40 @@
       <c r="F8" s="2">
         <v>94</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1738</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>31</v>
@@ -1160,65 +1340,149 @@
       <c r="F9" s="2">
         <v>96</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1738</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F10" s="2">
         <v>444825</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1738</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F11" s="2">
         <v>109112</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1738</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="2">
         <v>159443</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1738</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="2">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1236,10 +1500,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
@@ -1250,10 +1514,10 @@
         <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -1264,10 +1528,10 @@
         <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -1288,22 +1552,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1">
         <v>6801402</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1311,22 +1575,22 @@
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2">
         <v>6801402</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1334,22 +1598,22 @@
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李俊俋_2013-12-02_財產申報表_tmp52b51.xlsx
+++ b/legislator/property/output/normal/李俊俋_2013-12-02_財產申報表_tmp52b51.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -183,18 +183,30 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>富邦人壽</t>
   </si>
   <si>
+    <t>南山人壽</t>
+  </si>
+  <si>
     <t>富邦人壽心得意利率變動型年金保險</t>
   </si>
   <si>
-    <t>南山人壽</t>
-  </si>
-  <si>
     <t>月月金喜利率變動型養老保險</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>房屋貸款</t>
   </si>
   <si>
@@ -204,16 +216,16 @@
     <t>第一商業銀行嘉義市嘉義市東區文心街101巷8號</t>
   </si>
   <si>
+    <t>玉山商業銀行嘉義市嘉義市東區文心街101巷8號</t>
+  </si>
+  <si>
     <t>96年02月12日</t>
   </si>
   <si>
     <t>房貸</t>
   </si>
   <si>
-    <t>玉山商業銀行嘉義市嘉義市東區文心街101巷8號</t>
-  </si>
-  <si>
-    <t>3893589</t>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -1492,38 +1504,80 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1738</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>90</v>
       </c>
@@ -1531,10 +1585,31 @@
         <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1738</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1544,76 +1619,139 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="1">
-        <v>6801402</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2">
         <v>6801402</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>67</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1738</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3893589</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1738</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="2">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
